--- a/Template-import-data.xlsx
+++ b/Template-import-data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis.barnekow\Desktop\Github-DeviceGuardScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre.mueller\Downloads\DeviceGuard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEED8E0-7B0C-4BB7-B761-1D7236F429C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD918528-2401-417D-AB93-3670BCA9F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$A$2:$AB$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Daten!$A$2:$AC$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>HOSTNAME</t>
   </si>
@@ -97,73 +97,22 @@
 # 2.	VBS is enabled and running.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AvailableSecurityProperties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This field helps to enumerate and report state on the relevant security properties for VBS and memory integrity.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RequiredSecurityProperties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This field describes the required security properties to enable VBS.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SecurityServicesConfigured</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This field indicates whether Credential Guard or memory integrity has been configured.)</t>
-    </r>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>TPM version</t>
+  </si>
+  <si>
+    <t>Device Category</t>
+  </si>
+  <si>
+    <t>AvailableSecurityProperties</t>
+  </si>
+  <si>
+    <t>RequiredSecurityProperties</t>
+  </si>
+  <si>
+    <t>SecurityServicesConfigured</t>
   </si>
   <si>
     <r>
@@ -180,49 +129,16 @@
       </rPr>
       <t>SecurityServicesRunning</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This field indicates whether Credential Guard or memory integrity is running.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VirtualizationBasedSecurityStatus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (This field indicates whether VBS is enabled and running.)</t>
-    </r>
-  </si>
-  <si>
-    <t>XYZ</t>
+  </si>
+  <si>
+    <t>VirtualizationBasedSecurityStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +154,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -295,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,21 +249,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,175 +559,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" customWidth="1"/>
-    <col min="28" max="28" width="35" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" customWidth="1"/>
+    <col min="29" max="29" width="35" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="18"/>
+    </row>
+    <row r="2" spans="1:30" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -788,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -806,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -815,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -830,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -839,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -854,16 +809,19 @@
         <v>0</v>
       </c>
       <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AC3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
